--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col1a1-Cd93.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col1a1-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Cd93</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.4537623346414</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H2">
-        <v>48.4537623346414</v>
+        <v>269.879969</v>
       </c>
       <c r="I2">
-        <v>0.01237237634900862</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J2">
-        <v>0.01237237634900862</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>225.28833534577</v>
+        <v>229.5846506666667</v>
       </c>
       <c r="N2">
-        <v>225.28833534577</v>
+        <v>688.753952</v>
       </c>
       <c r="O2">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="P2">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="Q2">
-        <v>10916.06745761093</v>
+        <v>20653.43280159861</v>
       </c>
       <c r="R2">
-        <v>10916.06745761093</v>
+        <v>185880.8952143875</v>
       </c>
       <c r="S2">
-        <v>0.006246661728747823</v>
+        <v>0.01140105791855694</v>
       </c>
       <c r="T2">
-        <v>0.006246661728747823</v>
+        <v>0.01140105791855694</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.4537623346414</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H3">
-        <v>48.4537623346414</v>
+        <v>269.879969</v>
       </c>
       <c r="I3">
-        <v>0.01237237634900862</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J3">
-        <v>0.01237237634900862</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>135.424360218908</v>
+        <v>135.7283196666666</v>
       </c>
       <c r="N3">
-        <v>135.424360218908</v>
+        <v>407.1849589999999</v>
       </c>
       <c r="O3">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="P3">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="Q3">
-        <v>6561.819764367833</v>
+        <v>12210.11823468736</v>
       </c>
       <c r="R3">
-        <v>6561.819764367833</v>
+        <v>109891.0641121863</v>
       </c>
       <c r="S3">
-        <v>0.00375496657126636</v>
+        <v>0.006740199874924608</v>
       </c>
       <c r="T3">
-        <v>0.00375496657126636</v>
+        <v>0.00674019987492461</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.4537623346414</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H4">
-        <v>48.4537623346414</v>
+        <v>269.879969</v>
       </c>
       <c r="I4">
-        <v>0.01237237634900862</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J4">
-        <v>0.01237237634900862</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.9189524610866</v>
+        <v>90.23148833333335</v>
       </c>
       <c r="N4">
-        <v>84.9189524610866</v>
+        <v>270.694465</v>
       </c>
       <c r="O4">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="P4">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="Q4">
-        <v>4114.642740256201</v>
+        <v>8117.223758074622</v>
       </c>
       <c r="R4">
-        <v>4114.642740256201</v>
+        <v>73055.01382267159</v>
       </c>
       <c r="S4">
-        <v>0.002354582493451698</v>
+        <v>0.00448085018566657</v>
       </c>
       <c r="T4">
-        <v>0.002354582493451698</v>
+        <v>0.00448085018566657</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.4537623346414</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H5">
-        <v>48.4537623346414</v>
+        <v>269.879969</v>
       </c>
       <c r="I5">
-        <v>0.01237237634900862</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J5">
-        <v>0.01237237634900862</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.583017178823954</v>
+        <v>0.5972149999999999</v>
       </c>
       <c r="N5">
-        <v>0.583017178823954</v>
+        <v>1.791645</v>
       </c>
       <c r="O5">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="P5">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="Q5">
-        <v>28.24937581974899</v>
+        <v>53.72545522877833</v>
       </c>
       <c r="R5">
-        <v>28.24937581974899</v>
+        <v>483.529097059005</v>
       </c>
       <c r="S5">
-        <v>1.616555554273396E-05</v>
+        <v>2.965739558397908E-05</v>
       </c>
       <c r="T5">
-        <v>1.616555554273396E-05</v>
+        <v>2.965739558397908E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3844.36250207129</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H6">
-        <v>3844.36250207129</v>
+        <v>11572.705078</v>
       </c>
       <c r="I6">
-        <v>0.981634808235257</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J6">
-        <v>0.981634808235257</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>225.28833534577</v>
+        <v>229.5846506666667</v>
       </c>
       <c r="N6">
-        <v>225.28833534577</v>
+        <v>688.753952</v>
       </c>
       <c r="O6">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="P6">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="Q6">
-        <v>866090.0285573401</v>
+        <v>885638.4842003298</v>
       </c>
       <c r="R6">
-        <v>866090.0285573401</v>
+        <v>7970746.357802968</v>
       </c>
       <c r="S6">
-        <v>0.4956154270801205</v>
+        <v>0.4888880095753084</v>
       </c>
       <c r="T6">
-        <v>0.4956154270801205</v>
+        <v>0.4888880095753085</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3844.36250207129</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H7">
-        <v>3844.36250207129</v>
+        <v>11572.705078</v>
       </c>
       <c r="I7">
-        <v>0.981634808235257</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J7">
-        <v>0.981634808235257</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>135.424360218908</v>
+        <v>135.7283196666666</v>
       </c>
       <c r="N7">
-        <v>135.424360218908</v>
+        <v>407.1849589999999</v>
       </c>
       <c r="O7">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="P7">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="Q7">
-        <v>520620.3322925648</v>
+        <v>523581.2714116133</v>
       </c>
       <c r="R7">
-        <v>520620.3322925648</v>
+        <v>4712231.442704521</v>
       </c>
       <c r="S7">
-        <v>0.297922224974203</v>
+        <v>0.2890260644697012</v>
       </c>
       <c r="T7">
-        <v>0.297922224974203</v>
+        <v>0.2890260644697013</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3844.36250207129</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H8">
-        <v>3844.36250207129</v>
+        <v>11572.705078</v>
       </c>
       <c r="I8">
-        <v>0.981634808235257</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J8">
-        <v>0.981634808235257</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>84.9189524610866</v>
+        <v>90.23148833333335</v>
       </c>
       <c r="N8">
-        <v>84.9189524610866</v>
+        <v>270.694465</v>
       </c>
       <c r="O8">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="P8">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="Q8">
-        <v>326459.2365565758</v>
+        <v>348074.1344102215</v>
       </c>
       <c r="R8">
-        <v>326459.2365565758</v>
+        <v>3132667.209691993</v>
       </c>
       <c r="S8">
-        <v>0.1868145673259249</v>
+        <v>0.1921430400691232</v>
       </c>
       <c r="T8">
-        <v>0.1868145673259249</v>
+        <v>0.1921430400691233</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3844.36250207129</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H9">
-        <v>3844.36250207129</v>
+        <v>11572.705078</v>
       </c>
       <c r="I9">
-        <v>0.981634808235257</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J9">
-        <v>0.981634808235257</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.583017178823954</v>
+        <v>0.5972149999999999</v>
       </c>
       <c r="N9">
-        <v>0.583017178823954</v>
+        <v>1.791645</v>
       </c>
       <c r="O9">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="P9">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="Q9">
-        <v>2241.3293803342</v>
+        <v>2303.797687719256</v>
       </c>
       <c r="R9">
-        <v>2241.3293803342</v>
+        <v>20734.17918947331</v>
       </c>
       <c r="S9">
-        <v>0.001282588855008406</v>
+        <v>0.001271736815987886</v>
       </c>
       <c r="T9">
-        <v>0.001282588855008406</v>
+        <v>0.001271736815987887</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.128936447352119</v>
+        <v>0.1342213333333333</v>
       </c>
       <c r="H10">
-        <v>0.128936447352119</v>
+        <v>0.402664</v>
       </c>
       <c r="I10">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="J10">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>225.28833534577</v>
+        <v>229.5846506666667</v>
       </c>
       <c r="N10">
-        <v>225.28833534577</v>
+        <v>688.753952</v>
       </c>
       <c r="O10">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="P10">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="Q10">
-        <v>29.04787758935641</v>
+        <v>30.81515792534756</v>
       </c>
       <c r="R10">
-        <v>29.04787758935641</v>
+        <v>277.336421328128</v>
       </c>
       <c r="S10">
-        <v>1.662249394696362E-05</v>
+        <v>1.701050879295829E-05</v>
       </c>
       <c r="T10">
-        <v>1.662249394696362E-05</v>
+        <v>1.701050879295829E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.128936447352119</v>
+        <v>0.1342213333333333</v>
       </c>
       <c r="H11">
-        <v>0.128936447352119</v>
+        <v>0.402664</v>
       </c>
       <c r="I11">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="J11">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>135.424360218908</v>
+        <v>135.7283196666666</v>
       </c>
       <c r="N11">
-        <v>135.424360218908</v>
+        <v>407.1849589999999</v>
       </c>
       <c r="O11">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="P11">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="Q11">
-        <v>17.46113589155963</v>
+        <v>18.21763603675289</v>
       </c>
       <c r="R11">
-        <v>17.46113589155963</v>
+        <v>163.958724330776</v>
       </c>
       <c r="S11">
-        <v>9.992042439992603E-06</v>
+        <v>1.005645529193255E-05</v>
       </c>
       <c r="T11">
-        <v>9.992042439992603E-06</v>
+        <v>1.005645529193255E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.128936447352119</v>
+        <v>0.1342213333333333</v>
       </c>
       <c r="H12">
-        <v>0.128936447352119</v>
+        <v>0.402664</v>
       </c>
       <c r="I12">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="J12">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>84.9189524610866</v>
+        <v>90.23148833333335</v>
       </c>
       <c r="N12">
-        <v>84.9189524610866</v>
+        <v>270.694465</v>
       </c>
       <c r="O12">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="P12">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="Q12">
-        <v>10.94914804319599</v>
+        <v>12.11099067275111</v>
       </c>
       <c r="R12">
-        <v>10.94914804319599</v>
+        <v>108.99891605476</v>
       </c>
       <c r="S12">
-        <v>6.265591918465064E-06</v>
+        <v>6.685479718434544E-06</v>
       </c>
       <c r="T12">
-        <v>6.265591918465064E-06</v>
+        <v>6.685479718434546E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.128936447352119</v>
+        <v>0.1342213333333333</v>
       </c>
       <c r="H13">
-        <v>0.128936447352119</v>
+        <v>0.402664</v>
       </c>
       <c r="I13">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="J13">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.583017178823954</v>
+        <v>0.5972149999999999</v>
       </c>
       <c r="N13">
-        <v>0.583017178823954</v>
+        <v>1.791645</v>
       </c>
       <c r="O13">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="P13">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="Q13">
-        <v>0.0751721637828157</v>
+        <v>0.08015899358666666</v>
       </c>
       <c r="R13">
-        <v>0.0751721637828157</v>
+        <v>0.72143094228</v>
       </c>
       <c r="S13">
-        <v>4.301687218338685E-08</v>
+        <v>4.424917336279727E-08</v>
       </c>
       <c r="T13">
-        <v>4.301687218338685E-08</v>
+        <v>4.424917336279727E-08</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>23.3406417224581</v>
+        <v>0.253661</v>
       </c>
       <c r="H14">
-        <v>23.3406417224581</v>
+        <v>0.760983</v>
       </c>
       <c r="I14">
-        <v>0.005959892270556777</v>
+        <v>6.387138858074995E-05</v>
       </c>
       <c r="J14">
-        <v>0.005959892270556777</v>
+        <v>6.387138858074996E-05</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>225.28833534577</v>
+        <v>229.5846506666667</v>
       </c>
       <c r="N14">
-        <v>225.28833534577</v>
+        <v>688.753952</v>
       </c>
       <c r="O14">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="P14">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="Q14">
-        <v>5258.374319554611</v>
+        <v>58.23667207275733</v>
       </c>
       <c r="R14">
-        <v>5258.374319554611</v>
+        <v>524.1300486548161</v>
       </c>
       <c r="S14">
-        <v>0.003009076825967239</v>
+        <v>3.214766657260588E-05</v>
       </c>
       <c r="T14">
-        <v>0.003009076825967239</v>
+        <v>3.214766657260588E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>23.3406417224581</v>
+        <v>0.253661</v>
       </c>
       <c r="H15">
-        <v>23.3406417224581</v>
+        <v>0.760983</v>
       </c>
       <c r="I15">
-        <v>0.005959892270556777</v>
+        <v>6.387138858074995E-05</v>
       </c>
       <c r="J15">
-        <v>0.005959892270556777</v>
+        <v>6.387138858074996E-05</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>135.424360218908</v>
+        <v>135.7283196666666</v>
       </c>
       <c r="N15">
-        <v>135.424360218908</v>
+        <v>407.1849589999999</v>
       </c>
       <c r="O15">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="P15">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="Q15">
-        <v>3160.891472362639</v>
+        <v>34.42898129496632</v>
       </c>
       <c r="R15">
-        <v>3160.891472362639</v>
+        <v>309.8608316546969</v>
       </c>
       <c r="S15">
-        <v>0.001808803386916263</v>
+        <v>1.900540281083163E-05</v>
       </c>
       <c r="T15">
-        <v>0.001808803386916263</v>
+        <v>1.900540281083163E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>23.3406417224581</v>
+        <v>0.253661</v>
       </c>
       <c r="H16">
-        <v>23.3406417224581</v>
+        <v>0.760983</v>
       </c>
       <c r="I16">
-        <v>0.005959892270556777</v>
+        <v>6.387138858074995E-05</v>
       </c>
       <c r="J16">
-        <v>0.005959892270556777</v>
+        <v>6.387138858074996E-05</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.9189524610866</v>
+        <v>90.23148833333335</v>
       </c>
       <c r="N16">
-        <v>84.9189524610866</v>
+        <v>270.694465</v>
       </c>
       <c r="O16">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="P16">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="Q16">
-        <v>1982.062844840674</v>
+        <v>22.88820956212167</v>
       </c>
       <c r="R16">
-        <v>1982.062844840674</v>
+        <v>205.993886059095</v>
       </c>
       <c r="S16">
-        <v>0.001134224954629313</v>
+        <v>1.263469396959617E-05</v>
       </c>
       <c r="T16">
-        <v>0.001134224954629313</v>
+        <v>1.263469396959618E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,309 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.253661</v>
+      </c>
+      <c r="H17">
+        <v>0.760983</v>
+      </c>
+      <c r="I17">
+        <v>6.387138858074995E-05</v>
+      </c>
+      <c r="J17">
+        <v>6.387138858074996E-05</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5972149999999999</v>
+      </c>
+      <c r="N17">
+        <v>1.791645</v>
+      </c>
+      <c r="O17">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="P17">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="Q17">
+        <v>0.151490154115</v>
+      </c>
+      <c r="R17">
+        <v>1.363411387035</v>
+      </c>
+      <c r="S17">
+        <v>8.362522771626355E-08</v>
+      </c>
+      <c r="T17">
+        <v>8.362522771626357E-08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H18">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I18">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J18">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>229.5846506666667</v>
+      </c>
+      <c r="N18">
+        <v>688.753952</v>
+      </c>
+      <c r="O18">
+        <v>0.5033187360873315</v>
+      </c>
+      <c r="P18">
+        <v>0.5033187360873315</v>
+      </c>
+      <c r="Q18">
+        <v>5399.303474680985</v>
+      </c>
+      <c r="R18">
+        <v>48593.73127212888</v>
+      </c>
+      <c r="S18">
+        <v>0.002980510418100518</v>
+      </c>
+      <c r="T18">
+        <v>0.002980510418100518</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H19">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I19">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J19">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>135.7283196666666</v>
+      </c>
+      <c r="N19">
+        <v>407.1849589999999</v>
+      </c>
+      <c r="O19">
+        <v>0.2975573763642838</v>
+      </c>
+      <c r="P19">
+        <v>0.2975573763642838</v>
+      </c>
+      <c r="Q19">
+        <v>3192.018220124179</v>
+      </c>
+      <c r="R19">
+        <v>28728.16398111761</v>
+      </c>
+      <c r="S19">
+        <v>0.001762050161555127</v>
+      </c>
+      <c r="T19">
+        <v>0.001762050161555127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>23.3406417224581</v>
-      </c>
-      <c r="H17">
-        <v>23.3406417224581</v>
-      </c>
-      <c r="I17">
-        <v>0.005959892270556777</v>
-      </c>
-      <c r="J17">
-        <v>0.005959892270556777</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.583017178823954</v>
-      </c>
-      <c r="N17">
-        <v>0.583017178823954</v>
-      </c>
-      <c r="O17">
-        <v>0.001306584530467284</v>
-      </c>
-      <c r="P17">
-        <v>0.001306584530467284</v>
-      </c>
-      <c r="Q17">
-        <v>13.6079950889682</v>
-      </c>
-      <c r="R17">
-        <v>13.6079950889682</v>
-      </c>
-      <c r="S17">
-        <v>7.787103043961024E-06</v>
-      </c>
-      <c r="T17">
-        <v>7.787103043961024E-06</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H20">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I20">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J20">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>90.23148833333335</v>
+      </c>
+      <c r="N20">
+        <v>270.694465</v>
+      </c>
+      <c r="O20">
+        <v>0.1978146123067711</v>
+      </c>
+      <c r="P20">
+        <v>0.1978146123067711</v>
+      </c>
+      <c r="Q20">
+        <v>2122.037283716973</v>
+      </c>
+      <c r="R20">
+        <v>19098.33555345276</v>
+      </c>
+      <c r="S20">
+        <v>0.001171401878293173</v>
+      </c>
+      <c r="T20">
+        <v>0.001171401878293174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H21">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I21">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J21">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5972149999999999</v>
+      </c>
+      <c r="N21">
+        <v>1.791645</v>
+      </c>
+      <c r="O21">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="P21">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="Q21">
+        <v>14.04512459900167</v>
+      </c>
+      <c r="R21">
+        <v>126.406121391015</v>
+      </c>
+      <c r="S21">
+        <v>7.753155640750069E-06</v>
+      </c>
+      <c r="T21">
+        <v>7.753155640750069E-06</v>
       </c>
     </row>
   </sheetData>
